--- a/County-SO-Data/Island/Island.xlsx
+++ b/County-SO-Data/Island/Island.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidris\Documents\GitHub\wa-pursuit-pdr-data\County-SO-Data\Island\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B6D814-FDD6-4BD5-AC39-E20DEB8CA6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9053275A-B5B2-46C8-99B6-A687BE0043E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3020" yWindow="860" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Table" sheetId="9" r:id="rId2"/>
+    <sheet name="old table" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="19" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,19 +41,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="10">
   <si>
     <t>Year</t>
   </si>
   <si>
     <t>Grand Total</t>
   </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>Count of Year</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,6 +90,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -98,7 +133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -106,6 +141,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -121,6 +161,233 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Shira Idris" refreshedDate="45646.556667013887" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="27" xr:uid="{C2F836F2-1906-4C58-8167-876E0014F7D4}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:B28" sheet="Sheet2"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="Month" numFmtId="0">
+      <sharedItems count="5">
+        <s v="January"/>
+        <s v="April"/>
+        <s v="Jan"/>
+        <s v="July"/>
+        <s v="October"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Year" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2020" maxValue="2023" count="4">
+        <n v="2020"/>
+        <n v="2021"/>
+        <n v="2022"/>
+        <n v="2023"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="27">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{59051392-9706-4D90-BF7F-DB0F8F8F2427}" name="PivotTable5" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Year">
+  <location ref="A3:G9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Year" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -385,11 +652,393 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E54903-D172-4971-AAB8-B933E61C9A4E}">
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>2023</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49BEEF1-C2B6-412B-82F5-D8C14568754F}">
+  <dimension ref="A3:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B5" s="5">
+        <v>20</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>2021</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B8" s="5">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5">
+        <v>22</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -478,7 +1127,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2">
-        <f t="shared" ref="N4:N7" si="0">SUM(B5:M5)</f>
+        <f t="shared" ref="N5:N7" si="0">SUM(B5:M5)</f>
         <v>2</v>
       </c>
     </row>
